--- a/src/storage/excelTracker.xlsx
+++ b/src/storage/excelTracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -35,6 +35,30 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>CASH</t>
   </si>
   <si>
@@ -62,97 +86,112 @@
     <t>payee</t>
   </si>
   <si>
-    <t>9e7ed25e-ffad-476e-a618-5df1796e37cd</t>
-  </si>
-  <si>
-    <t>8f28eaa1-08ba-41e8-aac9-e407eb74d7cf</t>
-  </si>
-  <si>
-    <t>1ddd9b78-fca6-4839-a3e4-37324c780b07</t>
-  </si>
-  <si>
-    <t>3c94bff6-fa9d-4903-8e5f-3a093b174cca</t>
-  </si>
-  <si>
-    <t>f9f7e1be-55f3-461b-a261-a13e657ba541</t>
-  </si>
-  <si>
-    <t>6ab3c039-7017-408b-ab70-8427eefff675</t>
-  </si>
-  <si>
-    <t>75dc7e80-d894-43cf-8727-aac5e5c92d97</t>
-  </si>
-  <si>
-    <t>f21c5be6-7711-4fd6-ac2f-659de21ee4b8</t>
-  </si>
-  <si>
-    <t>db315c5d-6f14-4e32-9445-41dc78ce02bc</t>
-  </si>
-  <si>
-    <t>9db702e5-d197-49ae-b289-063032baae20</t>
-  </si>
-  <si>
-    <t>78f88ea3-f712-41f0-bde2-a5f7ea25a14a</t>
+    <t>16fef730-ec69-415d-98cf-1b2f3be9df8b</t>
+  </si>
+  <si>
+    <t>5a5d1047-c4a9-4436-bb90-1905395f1c2c</t>
+  </si>
+  <si>
+    <t>cf609b54-dbca-4d19-9003-19b587ab49a4</t>
+  </si>
+  <si>
+    <t>07360166-eb47-4f4e-93c5-597d9da6396b</t>
+  </si>
+  <si>
+    <t>14de404f-65dc-4db5-80a6-847424c9a834</t>
+  </si>
+  <si>
+    <t>f8e68ad9-9dfe-4fdc-98bc-010d0bdc80f7</t>
+  </si>
+  <si>
+    <t>abfcc122-153f-42b2-b2fd-84d3cf4cb6a7</t>
+  </si>
+  <si>
+    <t>a4e4baef-6723-4fe1-bcc3-6dd6b06cc5c5</t>
+  </si>
+  <si>
+    <t>1dedce3c-ebda-48e5-993c-f269b9381cf8</t>
+  </si>
+  <si>
+    <t>3bb632c1-d091-4a41-9da4-070c6c6f2b50</t>
+  </si>
+  <si>
+    <t>ad7f148c-365d-4d6c-b667-9c1846c70ff6</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
   </si>
   <si>
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
-  </si>
-  <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
-    <t>rent</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>fencing</t>
+  </si>
+  <si>
+    <t>new1</t>
+  </si>
+  <si>
+    <t>new2</t>
+  </si>
+  <si>
+    <t>new3</t>
+  </si>
+  <si>
+    <t>new4</t>
+  </si>
+  <si>
+    <t>new6</t>
   </si>
   <si>
     <t>EXPENSE</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Payee</t>
-  </si>
-  <si>
-    <t>jeremy</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>casey</t>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ofa</t>
+  </si>
+  <si>
+    <t>party3</t>
+  </si>
+  <si>
+    <t>party4</t>
+  </si>
+  <si>
+    <t>party6</t>
+  </si>
+  <si>
+    <t>mcmaster</t>
+  </si>
+  <si>
+    <t>party1</t>
+  </si>
+  <si>
+    <t>party2</t>
   </si>
 </sst>
 </file>
@@ -510,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -537,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +592,71 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -571,317 +674,317 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
